--- a/tests/testthat/testdata_Rate.xlsx
+++ b/tests/testthat/testdata_Rate.xlsx
@@ -1,30 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georgina.Anderson\Documents\R\Projects\PHEstatmethods\tests\testthat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georgina.anderson\Documents\R\Projects\PHEindicatormethods\tests\testthat\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F2EC38-0182-4CFB-8AD4-0336BB2B1BC0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testdata_Rate" sheetId="2" r:id="rId1"/>
+    <sheet name="testdata_Rate_g" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="27">
   <si>
     <t>Denominator</t>
   </si>
@@ -96,12 +104,21 @@
   </si>
   <si>
     <t>value</t>
+  </si>
+  <si>
+    <t>Area9</t>
+  </si>
+  <si>
+    <t>Area10</t>
+  </si>
+  <si>
+    <t>Area11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -431,11 +448,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1604,17 +1621,429 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="5"/>
-      <c r="J34" s="4"/>
+      <c r="A34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="4">
+        <v>100</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J35" s="4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" s="4">
+        <v>100000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD39EBE6-76F1-4DEA-ABB6-5CC513AA3B0B}">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <f>SUMIF(testdata_Rate!$A$2:$A$33,testdata_Rate_g!$A2,testdata_Rate!B$2:B$33)</f>
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <f>SUMIF(testdata_Rate!$A$2:$A$33,testdata_Rate_g!$A2,testdata_Rate!C$2:C$33)</f>
+        <v>400</v>
+      </c>
+      <c r="D2">
+        <v>1000</v>
+      </c>
+      <c r="E2">
+        <v>272.4663434065813</v>
+      </c>
+      <c r="F2">
+        <v>2560.3971688509241</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <f>SUMIF(testdata_Rate!$A$2:$A$33,testdata_Rate_g!$A5,testdata_Rate!B$2:B$33)</f>
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <f>SUMIF(testdata_Rate!$A$2:$A$33,testdata_Rate_g!$A5,testdata_Rate!C$2:C$33)</f>
+        <v>400</v>
+      </c>
+      <c r="D5">
+        <v>5000</v>
+      </c>
+      <c r="E5">
+        <v>3052.8572087189841</v>
+      </c>
+      <c r="F5">
+        <v>7722.4700922992661</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <f>SUMIF(testdata_Rate!$A$2:$A$33,testdata_Rate_g!$A6,testdata_Rate!B$2:B$33)</f>
+        <v>80</v>
+      </c>
+      <c r="C6">
+        <f>SUMIF(testdata_Rate!$A$2:$A$33,testdata_Rate_g!$A6,testdata_Rate!C$2:C$33)</f>
+        <v>400</v>
+      </c>
+      <c r="D6">
+        <v>20000</v>
+      </c>
+      <c r="E6">
+        <v>15858.21780470269</v>
+      </c>
+      <c r="F6">
+        <v>24892.038099730591</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <f>SUMIF(testdata_Rate!$A$2:$A$33,testdata_Rate_g!$A7,testdata_Rate!B$2:B$33)</f>
+        <v>260</v>
+      </c>
+      <c r="C7">
+        <f>SUMIF(testdata_Rate!$A$2:$A$33,testdata_Rate_g!$A7,testdata_Rate!C$2:C$33)</f>
+        <v>400</v>
+      </c>
+      <c r="D7">
+        <v>65000</v>
+      </c>
+      <c r="E7">
+        <v>57338.247579389856</v>
+      </c>
+      <c r="F7">
+        <v>73400.310929637635</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <f>SUMIF(testdata_Rate!$A$2:$A$33,testdata_Rate_g!$A8,testdata_Rate!B$2:B$33)</f>
+        <v>39424</v>
+      </c>
+      <c r="C8">
+        <f>SUMIF(testdata_Rate!$A$2:$A$33,testdata_Rate_g!$A8,testdata_Rate!C$2:C$33)</f>
+        <v>49380</v>
+      </c>
+      <c r="D8">
+        <v>79837.991089509916</v>
+      </c>
+      <c r="E8">
+        <v>79051.81799297237</v>
+      </c>
+      <c r="F8">
+        <v>80630.035462060783</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f>SUMIF(testdata_Rate!$A$2:$A$33,testdata_Rate_g!$A9,testdata_Rate!B$2:B$33)</f>
+        <v>31105824</v>
+      </c>
+      <c r="C9">
+        <f>SUMIF(testdata_Rate!$A$2:$A$33,testdata_Rate_g!$A9,testdata_Rate!C$2:C$33)</f>
+        <v>30257346708</v>
+      </c>
+      <c r="D9">
+        <v>102.80420256339154</v>
+      </c>
+      <c r="E9">
+        <v>102.76807817760378</v>
+      </c>
+      <c r="F9">
+        <v>102.84033651539011</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f>SUMIF(testdata_Rate!$A$2:$A$33,testdata_Rate_g!$A10,testdata_Rate!B$2:B$33)</f>
+        <v>888</v>
+      </c>
+      <c r="C10">
+        <f>SUMIF(testdata_Rate!$A$2:$A$33,testdata_Rate_g!$A10,testdata_Rate!C$2:C$33)</f>
+        <v>12860</v>
+      </c>
+      <c r="D10">
+        <v>6905.1321928460338</v>
+      </c>
+      <c r="E10">
+        <v>6458.3723204675634</v>
+      </c>
+      <c r="F10">
+        <v>7374.6521642203033</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f>SUMIF(testdata_Rate!$A$2:$A$33,testdata_Rate_g!$A11,testdata_Rate!B$2:B$33)</f>
+        <v>3996</v>
+      </c>
+      <c r="C11">
+        <f>SUMIF(testdata_Rate!$A$2:$A$33,testdata_Rate_g!$A11,testdata_Rate!C$2:C$33)</f>
+        <v>13824</v>
+      </c>
+      <c r="D11">
+        <v>28906.25</v>
+      </c>
+      <c r="E11">
+        <v>28016.873508380959</v>
+      </c>
+      <c r="F11">
+        <v>29816.675067891891</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12">
+        <v>100000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>